--- a/biology/Botanique/Varronia_curassavica/Varronia_curassavica.xlsx
+++ b/biology/Botanique/Varronia_curassavica/Varronia_curassavica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordia curassavica · Mahot noir, Liane mouton, Herbe condé
-Varronia curassavica (syn. Cordia curassavica), le Mahot noir[1],[2],[3], la Liane mouton[1] ou l'Herbe condé[3], est une espèce de plantes à fleurs de la famille des Boraginaceae[4] (ou des Cordiaceae[1]), originaire de l'Amérique tropicale mais ayant été largement introduite en Asie de sud est et dans la région Pacifique où elle est devenue une espèce envahissante. L'épithète spécifique curassavica provient du latin Curaçao, une île du sud de la région des mers des Caraïbes d'où provient son type biologique[5].
+Varronia curassavica (syn. Cordia curassavica), le Mahot noir la Liane mouton ou l'Herbe condé, est une espèce de plantes à fleurs de la famille des Boraginaceae (ou des Cordiaceae), originaire de l'Amérique tropicale mais ayant été largement introduite en Asie de sud est et dans la région Pacifique où elle est devenue une espèce envahissante. L'épithète spécifique curassavica provient du latin Curaçao, une île du sud de la région des mers des Caraïbes d'où provient son type biologique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Mahot noir est un arbuste à nombreuses branches pouvant atteindre 3 m de hauteur et sentant fortement la sauge. Ses feuilles sont de forme lancéolée à ovale, de 40 à 100 mm de long et de 15 à 60 mm de large. Il forme de petites fleurs blanches qui poussent en grappes aux extrémités des branches ; elles ont une corolle en forme d'entonnoir, de 4–6 mm de long. Les petits fruits sont rouges charnus et contiennent chacun une seule graine de 4 à 5  mm de long[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mahot noir est un arbuste à nombreuses branches pouvant atteindre 3 m de hauteur et sentant fortement la sauge. Ses feuilles sont de forme lancéolée à ovale, de 40 à 100 mm de long et de 15 à 60 mm de large. Il forme de petites fleurs blanches qui poussent en grappes aux extrémités des branches ; elles ont une corolle en forme d'entonnoir, de 4–6 mm de long. Les petits fruits sont rouges charnus et contiennent chacun une seule graine de 4 à 5  mm de long.
 C'est un arbuste tropical qui pousse principalement dans le biome saisonnier sec.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Varronia curassavica sont comestibles et sont aussi utilisés pour l'alimentation animale. Ils servent aussi comme médicament[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Varronia curassavica sont comestibles et sont aussi utilisés pour l'alimentation animale. Ils servent aussi comme médicament.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Varronia curassavica a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Varronia curassavica a pour synonymes :
 (synonymes homotypiques)
 Cordia curassavica (Jacq.) Roem. &amp; Schult. in Syst. Veg., ed. 15[bis]. 4: 460 (1819)
 Lithocardium curassavicum (Jacq.) Kuntze in Revis. Gen. Pl. 2: 977 (1891)
